--- a/excels/config/server/equip/server_equip_main_attr.xlsx
+++ b/excels/config/server/equip/server_equip_main_attr.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155" tabRatio="779"/>
+    <workbookView windowWidth="27945" windowHeight="13395" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="server_equip_main_attr" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">server_equip_main_attr!$A$1:$M$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">server_equip_main_attr!$A$1:$L$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>下标</t>
   </si>
@@ -65,12 +65,12 @@
     <t>默认倍率</t>
   </si>
   <si>
+    <t>保留小数点位数</t>
+  </si>
+  <si>
     <t>默认值</t>
   </si>
   <si>
-    <t>保留小数点位数</t>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
@@ -89,12 +89,12 @@
     <t>MinorProperty</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>test_1</t>
   </si>
   <si>
@@ -113,43 +113,46 @@
     <t>百分比建议：前期高成长低</t>
   </si>
   <si>
-    <t>public_attr_v1</t>
-  </si>
-  <si>
-    <t>公共属性</t>
-  </si>
-  <si>
-    <t>【基础】攻击力</t>
-  </si>
-  <si>
-    <t>【基础】护甲值</t>
-  </si>
-  <si>
-    <t>PhyicalArmor</t>
-  </si>
-  <si>
-    <t>【基础】固定减伤</t>
-  </si>
-  <si>
-    <t>FixedDamageReduction</t>
-  </si>
-  <si>
-    <t>【基础】固定增伤</t>
-  </si>
-  <si>
-    <t>FixedDamageBonus</t>
+    <t>weapon_attr_v1</t>
+  </si>
+  <si>
+    <t>武器部位专用属性</t>
+  </si>
+  <si>
+    <t>【基础】生命值</t>
+  </si>
+  <si>
+    <t>HealthPoints</t>
+  </si>
+  <si>
+    <t>clothing_attr_v1</t>
+  </si>
+  <si>
+    <t>衣服部位专用属性</t>
   </si>
   <si>
     <t>head_attr_v1</t>
   </si>
   <si>
-    <t>头部专用属性</t>
-  </si>
-  <si>
-    <t>【基础】生命值</t>
-  </si>
-  <si>
-    <t>HealthPoints</t>
+    <t>头盔部位专用属性</t>
+  </si>
+  <si>
+    <t>trousers_attr_v1</t>
+  </si>
+  <si>
+    <t>裤子部位专用属性</t>
+  </si>
+  <si>
+    <t>shoe_attr_v1</t>
+  </si>
+  <si>
+    <t>鞋子部位专用属性</t>
+  </si>
+  <si>
+    <t>jewelry_attr_v1</t>
+  </si>
+  <si>
+    <t>首饰部位专用属性</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1039,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6E469042-5B8C-4B8B-B149-712D47F82E48}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6DECE741-C0A6-4F31-9D79-F6DB1FEADE6F}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -1319,10 +1322,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1337,8 +1340,8 @@
     <col min="9" max="9" width="10.5083333333333" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.25" customWidth="1"/>
     <col min="11" max="11" width="12.3416666666667" customWidth="1"/>
-    <col min="12" max="12" width="11.675" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.8416666666667" customWidth="1"/>
+    <col min="12" max="12" width="17.8416666666667" customWidth="1"/>
+    <col min="13" max="13" width="11.675" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:13">
@@ -1375,10 +1378,10 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1406,10 +1409,10 @@
       <c r="I2" s="9"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1440,18 +1443,18 @@
         <v>10</v>
       </c>
       <c r="J3" s="7">
-        <f t="shared" ref="J3:J10" si="0">ROUNDUP(PRODUCT(1.4*I3),M3)</f>
+        <f t="shared" ref="J3:J11" si="0">ROUNDUP(PRODUCT(1.4*I3),L3)</f>
         <v>14</v>
       </c>
       <c r="K3" s="7">
         <v>5</v>
       </c>
-      <c r="L3" s="7" t="str">
-        <f t="shared" ref="L3:L10" si="1">ROUNDUP(PRODUCT(K3*I3),M3)&amp;"-"&amp;ROUNDUP(PRODUCT(K3*J3),M3)</f>
+      <c r="L3" s="7">
+        <v>2</v>
+      </c>
+      <c r="M3" s="7" t="str">
+        <f t="shared" ref="M3:M11" si="1">ROUNDUP(PRODUCT(K3*I3),L3)&amp;"-"&amp;ROUNDUP(PRODUCT(K3*J3),L3)</f>
         <v>50-70</v>
-      </c>
-      <c r="M3" s="7">
-        <v>2</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:13">
@@ -1489,12 +1492,12 @@
       <c r="K4" s="9">
         <v>5</v>
       </c>
-      <c r="L4" s="9" t="str">
+      <c r="L4" s="9">
+        <v>2</v>
+      </c>
+      <c r="M4" s="9" t="str">
         <f t="shared" si="1"/>
         <v>10-14</v>
-      </c>
-      <c r="M4" s="9">
-        <v>2</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:13">
@@ -1532,12 +1535,12 @@
       <c r="K5" s="7">
         <v>5</v>
       </c>
-      <c r="L5" s="7" t="str">
+      <c r="L5" s="7">
+        <v>2</v>
+      </c>
+      <c r="M5" s="7" t="str">
         <f t="shared" si="1"/>
         <v>150-210</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:13">
@@ -1560,27 +1563,27 @@
         <v>0</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>16.8</v>
       </c>
       <c r="K6" s="7">
         <v>5</v>
       </c>
-      <c r="L6" s="7" t="str">
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>100-140</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1</v>
+        <v>60-84</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:13">
@@ -1588,42 +1591,42 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="9">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7">
         <v>100</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="9">
-        <v>8</v>
-      </c>
-      <c r="J7" s="9">
+      <c r="I7" s="7">
+        <v>12</v>
+      </c>
+      <c r="J7" s="7">
         <f t="shared" si="0"/>
-        <v>11.2</v>
-      </c>
-      <c r="K7" s="9">
+        <v>16.8</v>
+      </c>
+      <c r="K7" s="7">
         <v>5</v>
       </c>
-      <c r="L7" s="9" t="str">
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>40-56</v>
-      </c>
-      <c r="M7" s="9">
-        <v>1</v>
+        <v>60-84</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:13">
@@ -1631,42 +1634,42 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D8" s="7">
         <v>100</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7">
         <v>0</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="0"/>
-        <v>11.2</v>
+        <v>16.8</v>
       </c>
       <c r="K8" s="7">
         <v>5</v>
       </c>
-      <c r="L8" s="7" t="str">
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>40-56</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1</v>
+        <v>60-84</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:13">
@@ -1674,42 +1677,42 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="9">
+        <v>36</v>
+      </c>
+      <c r="D9" s="7">
         <v>100</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="E9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="7">
         <v>0</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="9">
-        <v>8</v>
-      </c>
-      <c r="J9" s="9">
+      <c r="I9" s="7">
+        <v>12</v>
+      </c>
+      <c r="J9" s="7">
         <f t="shared" si="0"/>
-        <v>11.2</v>
-      </c>
-      <c r="K9" s="9">
+        <v>16.8</v>
+      </c>
+      <c r="K9" s="7">
         <v>5</v>
       </c>
-      <c r="L9" s="9" t="str">
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>40-56</v>
-      </c>
-      <c r="M9" s="9">
-        <v>1</v>
+        <v>60-84</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:13">
@@ -1717,22 +1720,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
         <v>100</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7">
         <v>0</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>24</v>
@@ -1747,16 +1750,59 @@
       <c r="K10" s="7">
         <v>5</v>
       </c>
-      <c r="L10" s="7" t="str">
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>60-84</v>
       </c>
-      <c r="M10" s="7">
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="7">
+        <v>100</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="7">
+        <v>12</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="0"/>
+        <v>16.8</v>
+      </c>
+      <c r="K11" s="7">
+        <v>5</v>
+      </c>
+      <c r="L11" s="7">
         <v>1</v>
+      </c>
+      <c r="M11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>60-84</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M10">
+  <autoFilter ref="A1:L6">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excels/config/server/equip/server_equip_main_attr.xlsx
+++ b/excels/config/server/equip/server_equip_main_attr.xlsx
@@ -10,7 +10,7 @@
     <sheet name="server_equip_main_attr" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">server_equip_main_attr!$A$1:$L$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">server_equip_main_attr!$A$1:$L$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>下标</t>
   </si>
@@ -65,7 +65,7 @@
     <t>默认倍率</t>
   </si>
   <si>
-    <t>保留小数点位数</t>
+    <t>保留小数点位数，指显时最多保留的小数点【这个很重要】。</t>
   </si>
   <si>
     <t>默认值</t>
@@ -105,12 +105,6 @@
   </si>
   <si>
     <t>Base</t>
-  </si>
-  <si>
-    <t>固定值建议：前期低成长高</t>
-  </si>
-  <si>
-    <t>百分比建议：前期高成长低</t>
   </si>
   <si>
     <t>weapon_attr_v1</t>
@@ -1039,7 +1033,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6DECE741-C0A6-4F31-9D79-F6DB1FEADE6F}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C1B6B54B-AC47-490B-ADC2-CE31D128CA0A}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -1325,7 +1319,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1344,7 +1338,7 @@
     <col min="13" max="13" width="11.675" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:13">
+    <row r="1" ht="50" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1470,9 +1464,7 @@
       <c r="D4" s="9">
         <v>40</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="E4" s="9"/>
       <c r="F4" s="9">
         <v>0</v>
       </c>
@@ -1513,9 +1505,7 @@
       <c r="D5" s="7">
         <v>88</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="E5" s="7"/>
       <c r="F5" s="7">
         <v>0</v>
       </c>
@@ -1548,22 +1538,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7">
         <v>100</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>24</v>
@@ -1591,22 +1581,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7">
         <v>100</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7">
         <v>0</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>24</v>
@@ -1634,22 +1624,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7">
         <v>100</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" s="7">
         <v>0</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>24</v>
@@ -1677,22 +1667,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="7">
         <v>100</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" s="7">
         <v>0</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>24</v>
@@ -1720,22 +1710,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7">
         <v>100</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" s="7">
         <v>0</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>24</v>
@@ -1763,22 +1753,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7">
         <v>100</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="7">
         <v>0</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>24</v>
@@ -1802,7 +1792,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L6">
+  <autoFilter ref="A1:L11">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
